--- a/medicine/Enfance/Sergio_Salma/Sergio_Salma.xlsx
+++ b/medicine/Enfance/Sergio_Salma/Sergio_Salma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sergio Salma, né le 1er octobre 1960 à Charleroi (province de Hainaut) , est un auteur de bande dessinée belge.
 </t>
@@ -513,108 +525,270 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse
-Sergio Salma naît le 1er octobre 1960 à Charleroi[1],[2] dans une famille originaire du sud de l'Italie[3].
-Fils d'ouvrier[3], Sergio Salma suit des études artistiques à l'Académie royale des beaux-arts de Mons[4].
-Carrière
-Nathalie et Mademoiselle Louise
-En 1983, il réalise son premier album chez l'éditeur Michel Deligne[5].
-Il crée la série Marcobello pour le magazine (À suivre) et participe à différents périodiques dont Tintin reporter, Spirou[6].
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sergio Salma naît le 1er octobre 1960 à Charleroi, dans une famille originaire du sud de l'Italie.
+Fils d'ouvrier, Sergio Salma suit des études artistiques à l'Académie royale des beaux-arts de Mons.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sergio_Salma</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sergio_Salma</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Nathalie et Mademoiselle Louise</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1983, il réalise son premier album chez l'éditeur Michel Deligne.
+Il crée la série Marcobello pour le magazine (À suivre) et participe à différents périodiques dont Tintin reporter, Spirou.
 C'est en 1989, dans le journal Tintin reporter, que l'on découvre le personnage de Nathalie, dans une série éponyme qui raconte l'histoire d'une fillette très contemporaine, avide de voyages et affublée de parents aux caractères marqués (un père lunaire, une mère dépressive, un oncle chômeur longue-durée et procrastinateur) et d'un petit frère à qui elle fait des tours pendables. En 1992, sort le Mon premier tour du monde, le premier tome des aventures de Nathalie, aux éditions Casterman. Au total, vingt albums seront publiés, jusqu'en 2011, ainsi qu'un atlas d'initiation à la géographie présenté par le même personnage. Et plusieurs traductions à travers le monde.
 Parallèlement, Salma lance une autre série centrée sur une jeune fille, mais au ton plus poétique et mélancolique, Mademoiselle Louise. Il y officie en tant que scénariste, tandis que le dessin est assuré par un maître de la bande dessinée franco-belge, André Geerts. Deux albums paraissent en 1993 et 1997, aux éditions Casterman.
 Tout en poursuivant sa série Nathalie, Sergio Salma mène une exploration journalistique de la bande dessinée en collaborant ponctuellement avec plusieurs magazines. Plusieurs strips et gags sont présents chaque semaine dans l'hebdomadaire Spirou.
-Progression dans la littérature jeunesse
-Parallèlement, il multiplie les expériences créatives, toujours à destination de la jeunesse, et avec un souci de pédagogie concernant des sujets très contemporains.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sergio_Salma</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sergio_Salma</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Progression dans la littérature jeunesse</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parallèlement, il multiplie les expériences créatives, toujours à destination de la jeunesse, et avec un souci de pédagogie concernant des sujets très contemporains.
 En 1998, il publie ainsi un album pour la Commission européenne avec pour thème la lutte contre toutes les discriminations. Moi, raciste ?! est traduit dans les douze langues de l'Union européenne.
 En 2000, il lance la série Surimi, avec trois albums narrant les mésaventures d'un crabe sur sa plage envahie de touristes, chez Casterman.
 En 2002, il crée Ice Fred pour la revue P'tit Loup de Disney-Hachette Presse. Deux ans plus tard, il sort Sale temps pour les pingouins !, un recueil des gags traitant notamment du réchauffement climatique publié aux
 éditions Casterman. Avec la collaboration de Thierry Tinlot, d'André Geerts et de Mauricet, il sort un album sur le thème des adolescents et enfants séropositifs, La Bédé contre le silence aux éditions Dupuis en 2005. La même année, il contribue au scénario du quinzième tome de Jojo, la série jeunesse écrite et dessinée par André Geerts.
 En 2007, il reprend pour Casterman la série Les 4 As avec Alain Maury au dessin. Cette reprise ne connait cependant qu'un seul tome, intitulé La Ballade des 4 As. La même année, les éditions Dupuis rééditent les deux premiers tomes de Mademoiselle Louise, dans une nouvelle collection destinée aux plus jeunes, « Punaise ». Un troisième album inédit est publié pour accompagner cette re-sortie. Si Salma assure toujours les scénarios, c'est Mauricet qui effectue les crayonnés, tandis que André Geerts œuvre à la mise à l'encre.
-En 2009, un quatrième album de Mademoiselle Louise sort, avec cette fois Salma au scénario mais aussi aux crayonnés. Le dessin évolue ainsi légèrement, s'éloignant du trait popularisé par Jojo pour rejoindre celui de Nathalie. L'année d'après, il écrit le scénario du dix-huitième et dernier album de Jojo. Les deux dernières planches de cet album seront co-dessinées par Mauricet[7].
-Diversification
-Depuis janvier 2006, Salma connait un autre grand succès avec une création originale : une série humoristique, plus satirique, Animal Lecteur, dont il est le scénariste. Dessinée par Libon, cette série en strips verticaux, a l'honneur de la troisième page hebdomadaire du Le Journal de Spirou. Près de 200 strips voient ainsi le jour[8]. En 2010, sort un premier recueil des aventures de ce libraire spécialisé dans la bande dessinée. Un nouvel album sort depuis chaque année. Le dernier (tome 7, On ferme !) paraît en 2018.
-En octobre 2012, Salma publie un roman graphique dans la collection « Écritures » aux éditions Casterman , Marcinelle 1956, un projet qu'il porte en lui depuis 25 ans[9] (la signature de fin indique (1986-2012), ravivant le souvenir de la catastrophe minière du Bois du Cazier d'août 1956 lors de laquelle 262 mineurs, dont plus de la moitié sont italiens, trouvent la mort.
-En octobre 2014, il dévoile un album dont il a écrit et dessiné les 208 pages, dédié intégralement à l'acteur français Gérard Depardieu, aux éditions Bamboo[10].
-En juillet 2016, sort aux éditions Dupuis, dans un format à l'italienne, un recueil de strips au ton mélancolique, Le Monsieur qui ne voulait pas voyager. En 2022, il publie un biopic consacré à ses charbonnages : Pays noir aux Éditions Kennes[11].
+En 2009, un quatrième album de Mademoiselle Louise sort, avec cette fois Salma au scénario mais aussi aux crayonnés. Le dessin évolue ainsi légèrement, s'éloignant du trait popularisé par Jojo pour rejoindre celui de Nathalie. L'année d'après, il écrit le scénario du dix-huitième et dernier album de Jojo. Les deux dernières planches de cet album seront co-dessinées par Mauricet.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Sergio_Salma</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sergio_Salma</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Diversification</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis janvier 2006, Salma connait un autre grand succès avec une création originale : une série humoristique, plus satirique, Animal Lecteur, dont il est le scénariste. Dessinée par Libon, cette série en strips verticaux, a l'honneur de la troisième page hebdomadaire du Le Journal de Spirou. Près de 200 strips voient ainsi le jour. En 2010, sort un premier recueil des aventures de ce libraire spécialisé dans la bande dessinée. Un nouvel album sort depuis chaque année. Le dernier (tome 7, On ferme !) paraît en 2018.
+En octobre 2012, Salma publie un roman graphique dans la collection « Écritures » aux éditions Casterman , Marcinelle 1956, un projet qu'il porte en lui depuis 25 ans (la signature de fin indique (1986-2012), ravivant le souvenir de la catastrophe minière du Bois du Cazier d'août 1956 lors de laquelle 262 mineurs, dont plus de la moitié sont italiens, trouvent la mort.
+En octobre 2014, il dévoile un album dont il a écrit et dessiné les 208 pages, dédié intégralement à l'acteur français Gérard Depardieu, aux éditions Bamboo.
+En juillet 2016, sort aux éditions Dupuis, dans un format à l'italienne, un recueil de strips au ton mélancolique, Le Monsieur qui ne voulait pas voyager. En 2022, il publie un biopic consacré à ses charbonnages : Pays noir aux Éditions Kennes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sergio_Salma</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sergio_Salma</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Albums de bande dessinée
-Mademoiselle Louise, dessin d'André Geerts, 4 albums, Casterman (1993-1997), puis Dupuis (2007-2009)
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Mademoiselle Louise, dessin d'André Geerts, 4 albums, Casterman (1993-1997), puis Dupuis (2007-2009)
 Mademoiselle Louise, Casterman, 1993. Réédition Dupuis sous le titre « Un papa cadeau », 2007.
-Cher Petit Trésor[12], Casterman, 1997. Réédition Dupuis, 2007.
+Cher Petit Trésor, Casterman, 1997. Réédition Dupuis, 2007.
 Une gamine en or, Dupuis, coll. « Punaise », 2007.
 Cash-cache, Dupuis, coll. « Punaise », 2009.
 Les 4 As, dessin de Alain Maury, album La Balade des 4 As, Casterman, 2007
 Marcinelle 1956, scénario et dessin, Casterman, 2012
 Gérard Depardieu, le Biopic en BD, scénario et dessin, Bamboo, 2014
 Le Monsieur qui ne voulait pas voyager, scénario et dessin, Dupuis, 2016
-Pays noir, Kennes Éditions, Gerpinnes, 12 octobre 2022Scénario et dessin : Sergio Salma - Couleurs : Amelia Navarro -  (ISBN 9782380757699)
-Collectifs
-La BD du 3e millénaire[13], Loterie romande, décembre 1999Scénario : collectif - Dessin : collectif dont Sergio Salma - Couleurs : quadrichromie
+Pays noir, Kennes Éditions, Gerpinnes, 12 octobre 2022Scénario et dessin : Sergio Salma - Couleurs : Amelia Navarro -  (ISBN 9782380757699)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sergio_Salma</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sergio_Salma</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Collectifs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La BD du 3e millénaire, Loterie romande, décembre 1999Scénario : collectif - Dessin : collectif dont Sergio Salma - Couleurs : quadrichromie
 Marie Moinard et collectif, En chemin elle rencontre... : Les artistes se mobilisent contre la violence faite aux femmes, Vincennes/Paris, Des ronds dans l'O / Amnesty International, septembre 2009, 96 p. (ISBN 978-2-917237-06-9)
 Participation à : Marie Moinard et collectif, En chemin elle rencontre... : Les artistes se mobilisent pour l'égalité femme-homme, Vincennes/Paris, Des ronds dans l'O / Amnesty International, février 2013, 84 p. (ISBN 978-2-917237-46-5)
 La Galerie des Illustres, Dupuis, Marcinelle, 5 avril 2013Scénario : collectif - Dessin : collectif dont Sergio Salma - Couleurs : quadrichromie -  (ISBN 978-2-8001-5711-5),Entretiens menés par Jean-Pierre Fuéri.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Sergio_Salma</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Sergio_Salma</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1994 :  prix du jury œcuménique de la bande dessinée pour Mademoiselle Louise, t. 1 (avec André Geerts) ;
-1995 :  prix avenir décerné par la Chambre belge des experts en bande dessinée[14] pour Y a un monde fou, ex aequo avec Bruno Di Sano ;
-1999 :  prix inter-auteurs au Festival BD d'Antibes[15] ;
-2013 :  prix Saint-Michel de la presse pour Marcinelle 1956[16].</t>
+1995 :  prix avenir décerné par la Chambre belge des experts en bande dessinée pour Y a un monde fou, ex aequo avec Bruno Di Sano ;
+1999 :  prix inter-auteurs au Festival BD d'Antibes ;
+2013 :  prix Saint-Michel de la presse pour Marcinelle 1956.</t>
         </is>
       </c>
     </row>
